--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fvan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fvan/PiIoT/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Puppet Master" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Official Raspberry Pi Camera cable</t>
   </si>
   <si>
-    <t>Custom Enclosure</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Official Raspberry Pi Touch Screen</t>
   </si>
   <si>
-    <t>Trellis</t>
-  </si>
-  <si>
     <t>EnOceanPi</t>
   </si>
   <si>
@@ -185,21 +179,9 @@
     <t>ENOCEAN PI 868</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>EnOcean Switch PTM 210</t>
-  </si>
-  <si>
     <t>Philips</t>
   </si>
   <si>
-    <t>PTM 210</t>
-  </si>
-  <si>
-    <t>http://be.farnell.com/enocean/ptm-210/module-switch-radio-tx-868mhz/dp/2134137</t>
-  </si>
-  <si>
     <t>Stontronics</t>
   </si>
   <si>
@@ -240,6 +222,75 @@
   </si>
   <si>
     <t>Assembled PCB Only - No Enclosure</t>
+  </si>
+  <si>
+    <t>https://shop.openenergymonitor.com/100a-max-clip-on-current-sensor-ct/</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3006</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/1857</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/1002</t>
+  </si>
+  <si>
+    <t>Trellis PCB</t>
+  </si>
+  <si>
+    <t>Trellis Elastomer Keypad</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/1616</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/1611</t>
+  </si>
+  <si>
+    <t>zeroview</t>
+  </si>
+  <si>
+    <t>https://thepihut.com/products/zeroview</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/usb-to-microusb-otg-converter-shim</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/pibow-zero-ver-1-3</t>
+  </si>
+  <si>
+    <t>EnOcean Sensor Kit</t>
+  </si>
+  <si>
+    <t>http://be.farnell.com/enocean/sensor-kit-868/sensor-kit-for-raspberry-pi-868mhz/dp/2382274</t>
+  </si>
+  <si>
+    <t>SENSOR KIT-868</t>
+  </si>
+  <si>
+    <t>868MHz for EU</t>
+  </si>
+  <si>
+    <t>Manufacturer/Reseller</t>
+  </si>
+  <si>
+    <t>IoT Tower Light</t>
+  </si>
+  <si>
+    <t>http://frederickvandenbosch.be/?p=1725</t>
+  </si>
+  <si>
+    <t>Personal project</t>
+  </si>
+  <si>
+    <t>http://be.farnell.com/pro-signal/abs-229-rc/speaker-8ohm-2w-wired-connector/dp/1867857</t>
+  </si>
+  <si>
+    <t>Pro Signal</t>
+  </si>
+  <si>
+    <t>ABS-229-RC</t>
   </si>
 </sst>
 </file>
@@ -297,17 +348,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,7 +648,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -618,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -629,30 +688,30 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -663,33 +722,33 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>59</v>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -702,19 +761,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -722,9 +781,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -734,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -744,31 +803,31 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -778,67 +837,97 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="5">
+        <v>1002</v>
+      </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="5">
+        <v>1857</v>
+      </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3006</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -848,7 +937,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -877,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -887,8 +976,8 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -896,39 +985,39 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -938,87 +1027,120 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="5">
+        <v>1002</v>
+      </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="5">
+        <v>1611</v>
+      </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1616</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
+      <c r="F8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" s="5">
+        <v>3006</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1029,7 +1151,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1058,12 +1180,12 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1074,19 +1196,19 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -1097,16 +1219,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1125,10 +1247,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1138,27 +1266,46 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1167,14 +1314,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
@@ -1185,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1197,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -1210,70 +1357,89 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1302,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -1315,19 +1481,19 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -1338,13 +1504,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1357,53 +1523,52 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,19 +1576,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1431,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1443,38 +1608,67 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>